--- a/FileNames/16-MW-QCD-003 Project Manager Checklist Electronic.xlsx
+++ b/FileNames/16-MW-QCD-003 Project Manager Checklist Electronic.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Google Drive\QMS-Updated Names\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
   </bookViews>
@@ -529,6 +534,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1074,7 +1082,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1082,6 +1090,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1115,7 +1146,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1123,6 +1154,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1156,7 +1210,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1164,6 +1218,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1197,7 +1274,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1205,6 +1282,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1238,7 +1338,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1246,6 +1346,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1279,7 +1402,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1287,6 +1410,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1320,7 +1466,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1328,6 +1474,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1361,7 +1530,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1369,6 +1538,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1402,7 +1594,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1410,6 +1602,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1443,7 +1658,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1451,6 +1666,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1484,7 +1722,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1492,6 +1730,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1525,7 +1786,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1533,6 +1794,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1566,7 +1850,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1574,6 +1858,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1607,7 +1914,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1615,6 +1922,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1648,7 +1978,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1656,6 +1986,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1689,7 +2042,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1697,6 +2050,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1730,7 +2106,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1738,6 +2114,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1771,7 +2170,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1779,6 +2178,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1812,7 +2234,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1820,6 +2242,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1853,7 +2298,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1861,6 +2306,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1894,7 +2362,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1902,6 +2370,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1935,7 +2426,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1943,6 +2434,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1976,7 +2490,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1984,6 +2498,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2017,7 +2554,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2025,6 +2562,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2058,7 +2618,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2066,6 +2626,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2099,7 +2682,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2107,6 +2690,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2140,7 +2746,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2148,6 +2754,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2181,7 +2810,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2189,6 +2818,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2222,7 +2874,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2230,6 +2882,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2263,7 +2938,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2271,6 +2946,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2304,7 +3002,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2312,6 +3010,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2345,7 +3066,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2353,6 +3074,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2386,7 +3130,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2394,6 +3138,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2427,7 +3194,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2435,6 +3202,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2468,7 +3258,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2476,6 +3266,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2509,7 +3322,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2517,6 +3330,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2550,7 +3386,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2558,6 +3394,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2591,7 +3450,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2599,6 +3458,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2632,7 +3514,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2640,6 +3522,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2673,7 +3578,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2681,6 +3586,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2714,7 +3642,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2722,6 +3650,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2755,7 +3706,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2763,6 +3714,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2796,7 +3770,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2804,6 +3778,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2837,7 +3834,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2845,6 +3842,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2878,7 +3898,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2886,6 +3906,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2919,7 +3962,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2927,6 +3970,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2960,7 +4026,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2968,6 +4034,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3001,7 +4090,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3009,6 +4098,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3042,7 +4154,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3050,6 +4162,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3083,7 +4218,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3091,6 +4226,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3124,7 +4282,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3132,6 +4290,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3165,7 +4346,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3173,6 +4354,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3206,7 +4410,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3214,6 +4418,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3247,7 +4474,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3255,6 +4482,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3288,7 +4538,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3296,6 +4546,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3329,7 +4602,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3337,6 +4610,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3370,7 +4666,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3378,6 +4674,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3411,7 +4730,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3419,6 +4738,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3452,7 +4794,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3460,6 +4802,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3493,7 +4858,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3501,6 +4866,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3534,7 +4922,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3542,6 +4930,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3575,7 +4986,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3583,6 +4994,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3616,7 +5050,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3624,6 +5058,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3657,7 +5114,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3665,6 +5122,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3698,7 +5178,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3706,6 +5186,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3739,7 +5242,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3747,6 +5250,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3780,7 +5306,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3788,6 +5314,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3821,7 +5370,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3829,6 +5378,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3862,7 +5434,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3870,6 +5442,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3903,7 +5498,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3911,6 +5506,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3944,7 +5562,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3952,6 +5570,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3985,7 +5626,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3993,6 +5634,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4026,7 +5690,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4034,6 +5698,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4067,7 +5754,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4075,6 +5762,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4108,7 +5818,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4116,6 +5826,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4149,7 +5882,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4157,6 +5890,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4190,7 +5946,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4198,6 +5954,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4231,7 +6010,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4239,6 +6018,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4272,7 +6074,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4280,6 +6082,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4313,7 +6138,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4321,6 +6146,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4354,7 +6202,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4362,6 +6210,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4395,7 +6266,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4403,6 +6274,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4436,7 +6330,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4444,6 +6338,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4477,7 +6394,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4485,6 +6402,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4518,7 +6458,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4526,6 +6466,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4559,7 +6522,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4567,6 +6530,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4600,7 +6586,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4608,6 +6594,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4641,7 +6650,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4649,6 +6658,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4682,7 +6714,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4690,6 +6722,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4723,7 +6778,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4731,6 +6786,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4764,7 +6842,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4772,6 +6850,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4805,7 +6906,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4813,6 +6914,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4846,7 +6970,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4854,6 +6978,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4887,7 +7034,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4895,6 +7042,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4928,7 +7098,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4936,6 +7106,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4969,7 +7162,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4977,6 +7170,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5010,7 +7226,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5018,6 +7234,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5051,7 +7290,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5059,6 +7298,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5092,7 +7354,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5100,6 +7362,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5133,7 +7418,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5141,6 +7426,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5174,7 +7482,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5182,6 +7490,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5215,7 +7546,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5223,6 +7554,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5256,7 +7610,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5264,6 +7618,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5297,7 +7674,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5305,6 +7682,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5338,7 +7738,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5346,6 +7746,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5379,7 +7802,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5387,6 +7810,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5420,7 +7866,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5428,6 +7874,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5461,7 +7930,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5469,6 +7938,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5502,7 +7994,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5510,6 +8002,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5543,7 +8058,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5551,6 +8066,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5584,7 +8122,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5592,6 +8130,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5625,7 +8186,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5633,6 +8194,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5666,7 +8250,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5674,6 +8258,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5707,7 +8314,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5715,6 +8322,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5748,7 +8378,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5756,6 +8386,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5789,7 +8442,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5797,6 +8450,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5830,7 +8506,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5838,6 +8514,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5871,7 +8570,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5879,6 +8578,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5912,7 +8634,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5920,6 +8642,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5953,7 +8698,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5961,6 +8706,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5994,7 +8762,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6002,6 +8770,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6035,7 +8826,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6043,6 +8834,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6076,7 +8890,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6084,6 +8898,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6117,7 +8954,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6125,6 +8962,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6158,7 +9018,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6166,6 +9026,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6199,7 +9082,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6207,6 +9090,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6240,7 +9146,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6248,6 +9154,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6281,7 +9210,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6289,6 +9218,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6342,7 +9294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6377,7 +9329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6589,7 +9541,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -8253,6 +11205,16 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H9:L9"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H10:L10"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
@@ -8262,15 +11224,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
@@ -8284,6 +11237,12 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
@@ -8297,12 +11256,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
@@ -8310,6 +11263,14 @@
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
@@ -8319,15 +11280,6 @@
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
@@ -8349,7 +11301,7 @@
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
-    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
@@ -8435,7 +11387,7 @@
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;G</oddHeader>
-    <oddFooter>&amp;LMW-QCD-003&amp;CRevision Date: 12-19-14 C&amp;R&amp;P</oddFooter>
+    <oddFooter>&amp;LMW-QCD-003&amp;C Revision Date: 12-19-14 C &amp;R&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
